--- a/Coordinates/Fields_coords.xlsx
+++ b/Coordinates/Fields_coords.xlsx
@@ -381,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1125"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1101" activeCellId="0" sqref="E1101"/>
+      <selection pane="topLeft" activeCell="A1126" activeCellId="0" sqref="A1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16144,6 +16144,10 @@
         <v>53.911425</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
